--- a/data/trans_camb/IP16A08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A08-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>-37,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-9,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>-23,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-21,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-19,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-27,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-26,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>-15,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>-25,86</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 20,25</t>
+          <t>-84,34; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 11,16</t>
+          <t>-59,21; 56,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 13,16</t>
+          <t>-72,72; 23,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 8,07</t>
+          <t>-52,95; 20,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 15,51</t>
+          <t>-54,33; 25,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 10,6</t>
+          <t>-61,44; -0,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 11,13</t>
+          <t>-51,56; 8,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 10,07</t>
+          <t>-46,5; 23,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 9,95</t>
+          <t>-54,45; 1,73</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,11%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>-25,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>-62,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,01%</t>
+          <t>-59,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>-55,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>-77,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>-72,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>-44,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>-71,54%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 339,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,0; 194,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 226,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,78; 255,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 395,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,33; 269,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 181,35</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 162,94</t>
+          <t>-100,0; 173,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 150,96</t>
+          <t>-100,0; 43,34</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,79</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,81</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,27</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-10,89</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-14,68</t>
+          <t>1,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 5,62</t>
+          <t>-5,89; 20,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 9,09</t>
+          <t>-12,15; 11,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,14; -3,1</t>
+          <t>-7,76; 13,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,31; -0,56</t>
+          <t>-11,13; 8,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 22,62</t>
+          <t>-6,29; 15,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 1,24</t>
+          <t>-9,39; 10,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,32; -1,3</t>
+          <t>-5,56; 11,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 11,56</t>
+          <t>-5,01; 10,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-25,33; -5,03</t>
+          <t>-6,33; 9,95</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-37,23%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-32,97%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-72,38%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-67,45%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-64,82%</t>
+          <t>-3,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-51,16%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-68,99%</t>
+          <t>17,08%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,09; 56,17</t>
+          <t>-39,62; 339,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,71; 77,2</t>
+          <t>-68,0; 194,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-93,66; 1,44</t>
+          <t>-51,97; 226,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-93,17; 17,23</t>
+          <t>-79,78; 255,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 223,81</t>
+          <t>-47,96; 395,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,11</t>
+          <t>-78,33; 269,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,17; -5,19</t>
+          <t>-40,55; 181,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,68; 78,65</t>
+          <t>-37,35; 162,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-88,35; -26,37</t>
+          <t>-47,71; 150,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-37,17</t>
+          <t>-7,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,33</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-23,29</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-21,27</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-19,65</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-27,76</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-26,06</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-15,99</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-25,86</t>
+          <t>-1,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-84,34; 0,0</t>
+          <t>-21,04; 5,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-59,21; 56,82</t>
+          <t>-21,14; 6,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-72,72; 23,73</t>
+          <t>-18,37; 7,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-52,95; 20,91</t>
+          <t>-5,48; 19,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 25,35</t>
+          <t>-12,53; 9,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-61,44; -0,66</t>
+          <t>-8,99; 13,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-51,56; 8,08</t>
+          <t>-11,64; 7,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 23,77</t>
+          <t>-15,14; 2,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-54,45; 1,73</t>
+          <t>-10,32; 6,7</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-43,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-25,1%</t>
+          <t>-52,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-62,66%</t>
+          <t>-30,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-59,68%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-55,14%</t>
+          <t>-8,88%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-77,9%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-72,11%</t>
+          <t>-9,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-44,25%</t>
+          <t>-42,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-71,54%</t>
+          <t>-13,53%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-82,02; 71,16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-92,2; 121,83</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-75,12; 90,12</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-57,43; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,89; 637,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>-61,83; 103,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 173,54</t>
+          <t>-84,84; 44,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 43,34</t>
+          <t>-59,51; 95,11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-15,79</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>-13,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>-13,27</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-14,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 5,1</t>
+          <t>-20,44; 5,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 6,32</t>
+          <t>-21,62; 9,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 7,52</t>
+          <t>-29,14; -3,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 19,23</t>
+          <t>-30,31; -0,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 9,31</t>
+          <t>-16,4; 22,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 13,65</t>
+          <t>-32,19; 1,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 7,74</t>
+          <t>-21,32; -1,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 2,86</t>
+          <t>-12,67; 11,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 6,7</t>
+          <t>-25,33; -5,03</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-43,0%</t>
+          <t>-37,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-52,29%</t>
+          <t>-32,97%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-30,46%</t>
+          <t>-72,38%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>-67,45%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>-64,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-9,81%</t>
+          <t>-51,16%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-42,44%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-13,53%</t>
+          <t>-68,99%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-82,02; 71,16</t>
+          <t>-71,09; 56,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-92,2; 121,83</t>
+          <t>-76,71; 77,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,12; 90,12</t>
+          <t>-93,66; 1,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-57,43; —</t>
+          <t>-93,17; 17,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,04; 223,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-71,89; 637,88</t>
+          <t>-100,0; 57,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-61,83; 103,55</t>
+          <t>-78,17; -5,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-84,84; 44,34</t>
+          <t>-49,68; 78,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-59,51; 95,11</t>
+          <t>-88,35; -26,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A08-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-52,95; 20,91</t>
+          <t>-54,13; 20,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 25,35</t>
+          <t>-59,51; 23,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,44; -0,66</t>
+          <t>-60,85; 0,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,56; 8,08</t>
+          <t>-52,87; 10,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 23,77</t>
+          <t>-46,74; 21,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-54,45; 1,73</t>
+          <t>-52,06; -0,31</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>-100,0; 168,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 173,54</t>
+          <t>-100,0; 166,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 43,34</t>
+          <t>-100,0; 60,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 10,03</t>
+          <t>-17,71; 8,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 40,55</t>
+          <t>-0,94; 38,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 3,83</t>
+          <t>-21,99; 3,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 25,1</t>
+          <t>-17,93; 23,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,28; -1,03</t>
+          <t>-33,49; -0,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,03; 11,67</t>
+          <t>-27,92; 11,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 11,73</t>
+          <t>-11,47; 12,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 14,86</t>
+          <t>-11,33; 15,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 3,56</t>
+          <t>-19,9; 3,48</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-86,32; 345,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 896,33</t>
+          <t>-22,1; 998,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,73; 243,37</t>
+          <t>-61,32; 212,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 45,26</t>
+          <t>-100,0; 116,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 198,92</t>
+          <t>-100,0; 150,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 117,65</t>
+          <t>-54,26; 123,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,79; 139,56</t>
+          <t>-56,4; 147,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,91; 52,6</t>
+          <t>-88,37; 82,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 20,25</t>
+          <t>-4,27; 21,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 11,16</t>
+          <t>-10,89; 10,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 13,16</t>
+          <t>-8,66; 14,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 8,07</t>
+          <t>-11,03; 8,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 15,51</t>
+          <t>-6,68; 15,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 10,6</t>
+          <t>-10,57; 10,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 11,13</t>
+          <t>-5,69; 11,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 10,07</t>
+          <t>-5,7; 10,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 9,95</t>
+          <t>-6,37; 9,63</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 339,63</t>
+          <t>-35,18; 401,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,0; 194,05</t>
+          <t>-65,73; 190,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 226,01</t>
+          <t>-54,53; 223,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,78; 255,15</t>
+          <t>-77,69; 267,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 395,57</t>
+          <t>-56,33; 373,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,33; 269,02</t>
+          <t>-75,95; 317,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 181,35</t>
+          <t>-45,23; 160,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 162,94</t>
+          <t>-41,9; 178,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 150,96</t>
+          <t>-47,31; 150,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 5,1</t>
+          <t>-19,57; 4,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 6,32</t>
+          <t>-21,5; 4,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 7,52</t>
+          <t>-18,54; 8,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 19,23</t>
+          <t>-6,4; 18,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 9,31</t>
+          <t>-14,04; 8,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 13,65</t>
+          <t>-9,8; 13,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 7,74</t>
+          <t>-10,46; 7,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 2,86</t>
+          <t>-14,58; 2,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 6,7</t>
+          <t>-11,58; 6,05</t>
         </is>
       </c>
     </row>
@@ -1439,22 +1439,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-82,02; 71,16</t>
+          <t>-83,82; 56,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-92,2; 121,83</t>
+          <t>-88,3; 69,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,12; 90,12</t>
+          <t>-75,41; 95,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,43; —</t>
+          <t>-59,86; 758,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,89; 637,88</t>
+          <t>-75,11; 577,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-61,83; 103,55</t>
+          <t>-59,59; 97,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-84,84; 44,34</t>
+          <t>-82,95; 50,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,51; 95,11</t>
+          <t>-62,53; 82,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 5,62</t>
+          <t>-21,96; 6,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 9,09</t>
+          <t>-23,79; 8,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-29,14; -3,1</t>
+          <t>-28,58; -1,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-30,31; -0,56</t>
+          <t>-29,8; -1,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 22,62</t>
+          <t>-14,31; 24,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 1,24</t>
+          <t>-30,38; 0,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-21,32; -1,3</t>
+          <t>-21,68; -0,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 11,56</t>
+          <t>-13,27; 11,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-25,33; -5,03</t>
+          <t>-25,07; -5,03</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-71,09; 56,17</t>
+          <t>-73,38; 52,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-76,71; 77,2</t>
+          <t>-77,76; 83,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-93,66; 1,44</t>
+          <t>-93,6; 1,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-93,17; 17,23</t>
+          <t>-93,09; 23,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 223,81</t>
+          <t>-53,91; 256,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,11</t>
+          <t>-100,0; 38,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-78,17; -5,19</t>
+          <t>-76,72; -3,78</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,68; 78,65</t>
+          <t>-47,83; 78,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-88,35; -26,37</t>
+          <t>-88,32; -26,02</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 3,19</t>
+          <t>-9,94; 2,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 5,9</t>
+          <t>-8,5; 6,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 0,78</t>
+          <t>-12,88; 0,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 3,17</t>
+          <t>-10,33; 3,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 6,01</t>
+          <t>-8,97; 5,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 1,05</t>
+          <t>-12,7; 0,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 1,6</t>
+          <t>-8,3; 1,33</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,6</t>
+          <t>-6,48; 3,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -1,03</t>
+          <t>-10,77; -1,47</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-50,5; 29,04</t>
+          <t>-50,91; 24,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 46,29</t>
+          <t>-44,36; 46,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,75; 6,69</t>
+          <t>-62,77; 1,82</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-52,17; 27,69</t>
+          <t>-55,29; 30,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 50,37</t>
+          <t>-46,63; 45,61</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-66,14; 9,63</t>
+          <t>-64,17; 7,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 14,17</t>
+          <t>-44,87; 9,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 35,96</t>
+          <t>-35,57; 27,33</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-57,1; -7,07</t>
+          <t>-57,43; -9,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A08-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-84,34; 0,0</t>
+          <t>-84,79; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-59,21; 56,82</t>
+          <t>-59,03; 56,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-72,72; 23,73</t>
+          <t>-70,09; 23,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-54,13; 20,08</t>
+          <t>-53,45; 24,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,51; 23,4</t>
+          <t>-52,29; 25,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 0,45</t>
+          <t>-61,84; -0,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 10,06</t>
+          <t>-53,07; 9,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 21,23</t>
+          <t>-46,75; 22,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-52,06; -0,31</t>
+          <t>-54,35; -1,82</t>
         </is>
       </c>
     </row>
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 168,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 166,62</t>
+          <t>-100,0; 190,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 60,18</t>
+          <t>-100,0; 68,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 8,57</t>
+          <t>-15,71; 10,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 38,32</t>
+          <t>-0,59; 39,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 3,66</t>
+          <t>-19,89; 3,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 23,44</t>
+          <t>-17,5; 24,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,49; -0,98</t>
+          <t>-33,47; -1,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 11,99</t>
+          <t>-25,76; 14,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 12,16</t>
+          <t>-12,9; 12,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 15,41</t>
+          <t>-11,19; 14,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 3,48</t>
+          <t>-18,88; 3,25</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-86,69; 508,23</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-22,61; 968,31</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-22,1; 998,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,32; 212,72</t>
+          <t>-59,2; 226,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 116,07</t>
+          <t>-100,0; 48,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 150,23</t>
+          <t>-96,35; 195,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,26; 123,42</t>
+          <t>-60,24; 118,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 147,98</t>
+          <t>-54,35; 138,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,37; 82,99</t>
+          <t>-88,47; 44,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 21,53</t>
+          <t>-6,21; 20,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 10,51</t>
+          <t>-10,87; 11,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 14,21</t>
+          <t>-7,93; 13,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 8,45</t>
+          <t>-11,23; 8,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 15,12</t>
+          <t>-7,12; 14,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 10,69</t>
+          <t>-10,62; 11,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 11,09</t>
+          <t>-5,09; 10,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 10,52</t>
+          <t>-4,76; 10,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 9,63</t>
+          <t>-5,67; 9,68</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 401,03</t>
+          <t>-42,81; 352,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,73; 190,96</t>
+          <t>-69,86; 211,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,53; 223,54</t>
+          <t>-49,05; 274,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,69; 267,87</t>
+          <t>-81,09; 193,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 373,84</t>
+          <t>-53,04; 347,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,95; 317,84</t>
+          <t>-77,91; 299,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,23; 160,41</t>
+          <t>-41,19; 160,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 178,11</t>
+          <t>-35,59; 163,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 150,44</t>
+          <t>-44,88; 136,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 4,27</t>
+          <t>-20,11; 5,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 4,35</t>
+          <t>-20,51; 5,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 8,14</t>
+          <t>-18,23; 7,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 18,66</t>
+          <t>-6,17; 19,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 8,95</t>
+          <t>-13,13; 9,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 13,53</t>
+          <t>-8,18; 12,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 7,39</t>
+          <t>-10,32; 6,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 2,87</t>
+          <t>-14,1; 3,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 6,05</t>
+          <t>-10,49; 7,03</t>
         </is>
       </c>
     </row>
@@ -1439,22 +1439,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-83,82; 56,35</t>
+          <t>-82,25; 71,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,3; 69,38</t>
+          <t>-88,99; 78,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,41; 95,88</t>
+          <t>-74,51; 87,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-59,86; 758,73</t>
+          <t>-66,27; 754,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,11; 577,12</t>
+          <t>-65,18; 837,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-59,59; 97,79</t>
+          <t>-60,83; 87,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-82,95; 50,36</t>
+          <t>-81,4; 48,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,53; 82,4</t>
+          <t>-58,87; 98,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 6,18</t>
+          <t>-21,77; 5,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 8,91</t>
+          <t>-22,03; 8,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-28,58; -1,68</t>
+          <t>-28,85; -2,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-29,8; -1,23</t>
+          <t>-28,39; -0,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 24,61</t>
+          <t>-14,12; 23,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 0,91</t>
+          <t>-29,5; 1,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-21,68; -0,9</t>
+          <t>-21,43; 0,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 11,77</t>
+          <t>-12,69; 11,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-25,07; -5,03</t>
+          <t>-25,38; -3,63</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-73,38; 52,55</t>
+          <t>-73,87; 50,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,76; 83,52</t>
+          <t>-77,95; 66,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-93,6; 1,37</t>
+          <t>-93,46; 0,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-93,09; 23,41</t>
+          <t>-91,62; 34,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-53,91; 256,62</t>
+          <t>-48,97; 231,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 38,42</t>
+          <t>-92,91; 51,35</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-76,72; -3,78</t>
+          <t>-77,35; 10,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 78,96</t>
+          <t>-48,65; 85,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-88,32; -26,02</t>
+          <t>-89,55; -21,4</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 2,88</t>
+          <t>-10,16; 3,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 6,23</t>
+          <t>-7,94; 6,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 0,26</t>
+          <t>-12,69; -0,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 3,52</t>
+          <t>-10,06; 3,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 5,47</t>
+          <t>-9,49; 6,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 0,73</t>
+          <t>-12,3; 1,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 1,33</t>
+          <t>-8,37; 1,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 3,65</t>
+          <t>-6,56; 3,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,77; -1,47</t>
+          <t>-10,46; -1,14</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 24,39</t>
+          <t>-51,08; 27,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 46,87</t>
+          <t>-42,72; 46,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-62,77; 1,82</t>
+          <t>-62,88; 3,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 30,31</t>
+          <t>-53,76; 30,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 45,61</t>
+          <t>-50,05; 58,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-64,17; 7,45</t>
+          <t>-63,06; 18,52</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 9,83</t>
+          <t>-45,45; 9,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 27,33</t>
+          <t>-35,59; 26,35</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-57,43; -9,22</t>
+          <t>-56,97; -9,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A08-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-37,17</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,33</t>
+          <t>-17,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-23,29</t>
+          <t>-13,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,27</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-19,65</t>
+          <t>13,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-27,76</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-26,06</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-15,99</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-25,86</t>
+          <t>-12,5</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-84,79; 0,0</t>
+          <t>-20,26; 14,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-59,03; 56,18</t>
+          <t>-34,64; -1,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 23,49</t>
+          <t>-29,16; 4,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,45; 24,54</t>
+          <t>-22,7; 4,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 25,67</t>
+          <t>-5,01; 34,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,84; -0,1</t>
+          <t>-24,25; 2,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,07; 9,69</t>
+          <t>-17,69; 5,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,75; 22,01</t>
+          <t>-14,39; 9,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-54,35; -1,82</t>
+          <t>-23,42; -1,95</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-9,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,1%</t>
+          <t>-71,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-62,66%</t>
+          <t>-53,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-59,68%</t>
+          <t>-49,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-55,14%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-77,9%</t>
+          <t>-68,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-72,11%</t>
+          <t>-27,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-44,25%</t>
+          <t>-12,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-71,54%</t>
+          <t>-60,21%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,03; 94,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 25,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,7; 40,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,67; 87,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,99; 462,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 119,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,1; 43,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 190,3</t>
+          <t>-59,63; 73,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 68,41</t>
+          <t>-85,89; -8,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,05</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,7</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 10,87</t>
+          <t>-11,13; 8,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 39,08</t>
+          <t>-6,29; 15,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 3,55</t>
+          <t>-10,32; 9,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 24,5</t>
+          <t>-5,89; 20,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,47; -1,05</t>
+          <t>-12,15; 11,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,76; 14,7</t>
+          <t>-8,0; 13,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 12,06</t>
+          <t>-5,56; 11,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 14,98</t>
+          <t>-5,01; 10,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 3,25</t>
+          <t>-6,53; 9,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-23,85%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>157,4%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-71,17%</t>
+          <t>-11,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-80,01%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-38,01%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-51,1%</t>
+          <t>12,85%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-86,69; 508,23</t>
+          <t>-79,78; 255,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 968,31</t>
+          <t>-47,96; 395,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,73; 254,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-59,2; 226,78</t>
+          <t>-39,62; 339,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 48,58</t>
+          <t>-68,0; 194,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-96,35; 195,16</t>
+          <t>-53,23; 228,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,24; 118,95</t>
+          <t>-40,55; 181,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,35; 138,84</t>
+          <t>-37,35; 162,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,47; 44,92</t>
+          <t>-49,25; 145,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-7,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>-3,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 20,84</t>
+          <t>-5,48; 19,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 11,87</t>
+          <t>-12,53; 9,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 13,79</t>
+          <t>-13,36; 10,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 8,0</t>
+          <t>-21,04; 5,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 14,94</t>
+          <t>-21,14; 6,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 11,28</t>
+          <t>-18,59; 7,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 10,8</t>
+          <t>-11,64; 7,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 10,31</t>
+          <t>-15,14; 2,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 9,68</t>
+          <t>-12,53; 5,72</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>65,11%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>-8,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,01%</t>
+          <t>-43,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>-52,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>-32,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>-9,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>-42,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>-27,18%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,81; 352,65</t>
+          <t>-57,43; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,86; 211,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,05; 274,6</t>
+          <t>-84,96; 447,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,09; 193,51</t>
+          <t>-82,02; 71,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,04; 347,34</t>
+          <t>-92,2; 121,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,91; 299,97</t>
+          <t>-76,28; 82,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 160,12</t>
+          <t>-61,83; 103,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 163,32</t>
+          <t>-84,84; 44,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,88; 136,44</t>
+          <t>-70,0; 72,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>-13,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-13,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>-16,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-14,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 5,27</t>
+          <t>-30,31; -0,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 5,52</t>
+          <t>-16,4; 22,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 7,6</t>
+          <t>-32,2; 0,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 19,04</t>
+          <t>-20,44; 5,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 9,15</t>
+          <t>-21,62; 9,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 12,59</t>
+          <t>-29,31; -3,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 6,85</t>
+          <t>-21,32; -1,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 3,25</t>
+          <t>-12,67; 11,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 7,03</t>
+          <t>-25,26; -5,33</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-43,0%</t>
+          <t>-67,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-52,29%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-30,46%</t>
+          <t>-65,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>-37,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>-32,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>-73,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,81%</t>
+          <t>-51,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-42,44%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-13,53%</t>
+          <t>-70,22%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-82,25; 71,72</t>
+          <t>-93,17; 17,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,99; 78,62</t>
+          <t>-56,04; 223,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,51; 87,82</t>
+          <t>-100,0; 52,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 754,81</t>
+          <t>-71,09; 56,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,71; 77,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,18; 837,06</t>
+          <t>-94,05; -3,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-60,83; 87,25</t>
+          <t>-78,17; -5,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-81,4; 48,3</t>
+          <t>-49,68; 78,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,87; 98,47</t>
+          <t>-88,83; -28,44</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-15,79</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-13,81</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-13,27</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-10,89</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-14,68</t>
+          <t>-6,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 5,47</t>
+          <t>-10,6; 3,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 8,51</t>
+          <t>-9,21; 6,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-28,85; -2,92</t>
+          <t>-14,82; -0,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-28,39; -0,62</t>
+          <t>-9,92; 3,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 23,35</t>
+          <t>-8,46; 5,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 1,17</t>
+          <t>-13,02; 0,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 0,38</t>
+          <t>-8,18; 1,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 11,36</t>
+          <t>-6,51; 4,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-25,38; -3,63</t>
+          <t>-11,93; -1,79</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-37,23%</t>
+          <t>-21,95%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-32,97%</t>
+          <t>-10,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-72,38%</t>
+          <t>-45,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-67,45%</t>
+          <t>-21,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>-8,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-64,82%</t>
+          <t>-37,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-51,16%</t>
+          <t>-22,04%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>-9,89%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-68,99%</t>
+          <t>-41,25%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-73,87; 50,78</t>
+          <t>-52,17; 27,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,95; 66,72</t>
+          <t>-48,12; 50,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-93,46; 0,2</t>
+          <t>-75,9; -7,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-91,62; 34,94</t>
+          <t>-50,5; 29,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 231,25</t>
+          <t>-41,9; 46,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,91; 51,35</t>
+          <t>-64,43; 3,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-77,35; 10,09</t>
+          <t>-44,94; 14,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 85,44</t>
+          <t>-35,98; 35,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-89,55; -21,4</t>
+          <t>-61,31; -12,29</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-3,58</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-5,86</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-5,71</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-3,5</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-5,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 3,31</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 6,52</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-12,69; -0,02</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-10,06; 3,21</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-9,49; 6,78</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 1,52</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-8,37; 1,22</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-6,56; 3,22</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-10,46; -1,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-21,99%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-8,87%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-36,04%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-21,95%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-10,54%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-36,93%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-22,04%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-9,89%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-36,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-51,08; 27,45</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-42,72; 46,95</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-62,88; 3,15</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-53,76; 30,03</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-50,05; 58,37</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-63,06; 18,52</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-45,45; 9,75</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-35,59; 26,35</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-56,97; -9,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
